--- a/data/countries/grenada.xlsx
+++ b/data/countries/grenada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/home/BlenmanSandbox-CC1407-MEDCCC/AP 2023 Spr/data/countries/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreipascu/Documents/Yale University/Years/Senior/Spring/CSEC 491/local/data/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB5BE26-B212-F449-8225-05A18A6947EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D754DA-273E-3640-BF10-E02F88DBEF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32500" yWindow="700" windowWidth="18360" windowHeight="26520" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16560" xr2:uid="{A00892F2-77B1-0143-89C4-5296CC556B66}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,14 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -558,7 +566,7 @@
   <dimension ref="B1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>45032</v>
+        <v>45033</v>
       </c>
       <c r="E4" s="2"/>
     </row>
